--- a/Ubicazione ricambi.xlsx
+++ b/Ubicazione ricambi.xlsx
@@ -11828,8 +11828,8 @@
   </sheetPr>
   <dimension ref="A1:D2101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2092" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2107" sqref="B2107"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2102" sqref="C2102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39219,7 +39219,7 @@
         <v>3606</v>
       </c>
       <c r="C2069" s="1" t="s">
-        <v>66</v>
+        <v>3690</v>
       </c>
       <c r="D2069" t="s">
         <v>29</v>

--- a/Ubicazione ricambi.xlsx
+++ b/Ubicazione ricambi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7877" uniqueCount="3807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7881" uniqueCount="3809">
   <si>
     <t>Codice</t>
   </si>
@@ -11440,6 +11440,12 @@
   </si>
   <si>
     <t>VALVOLA SEDE INCLINATA 2/2 NC G1" D=90mm 0..11bar ( TIPO 2000 178674 BURKERT )</t>
+  </si>
+  <si>
+    <t>CG224896</t>
+  </si>
+  <si>
+    <t>AMMORTIZZATORE ANTERIORE H=81mm L=42mm Sp=6mm ( 8L10239964 ACMI LABELLING )</t>
   </si>
 </sst>
 </file>
@@ -11545,8 +11551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabella3" displayName="Tabella3" ref="A1:D2101" totalsRowShown="0">
-  <autoFilter ref="A1:D2101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabella3" displayName="Tabella3" ref="A1:D2102" totalsRowShown="0">
+  <autoFilter ref="A1:D2102"/>
   <sortState ref="A17:D2189">
     <sortCondition ref="A1:A2202"/>
   </sortState>
@@ -11826,10 +11832,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D2101"/>
+  <dimension ref="A1:D2102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2102" sqref="C2102"/>
+      <selection activeCell="D2106" sqref="D2106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39673,6 +39679,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="2102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2102" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C2102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
